--- a/medicine/Mort/Cimetière_de_Bram/Cimetière_de_Bram.xlsx
+++ b/medicine/Mort/Cimetière_de_Bram/Cimetière_de_Bram.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Bram</t>
+          <t>Cimetière_de_Bram</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière de Bram est le cimetière communal de la ville de Bram située dans le département de l'Aude
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Bram</t>
+          <t>Cimetière_de_Bram</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,21 +523,58 @@
           <t>Histoire et description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Il fut créé, peut-après la Révolution, pour remplacer celui situé à l'emplacement de l'actuel monument aux morts qui succéda à un autre cimetière établi à côté de l'église. Au début de la période de l'âge de fer, un cimetière se trouvait sur la commune au lieu dit « La Gabache »[1],[2],[3].
-Le cimetière actuel comporte deux parties: « le cimetière ancien » et « le nouveau cimetière » attenant, agrandi en 2022 où se trouve le colombarium et un jardin du souvenir[4],[5],[6]. Un carré militaire de corps reconstitués comportant 7 tombes pour 9 poilus est visible[7].
-Personnalités inhumées
-Guillaume Maugis (1774-1866), maire de Bram de 1800 à 1818, inhumé dans le même caveau que Jules-Léo Maugis (1818-1877), médecin, maire de 1876 à 1877;
-le marquis Charles de Lordat (1829-1908), plusieurs fois maire de Bram, député de l'Aude de 1877 à 1878. Son caveau, est orné d'un frontispice avec les armes de sa famille entourées des sculptures représentant la Cité de Carcassonne et les ruines du château de Lordat en Ariège, dont une pierre prélevée sur place est visible à l'arrière du monument[8];
-le général François Vidal de la Blache (1848-1917) né et décédé à Bram, frère du géographe Paul Vidal de la Blache [9];
-Albert Sarraut (1872-1962), homme d'État, gouverneur général de l'Indochine française, président du conseil, ministre, député et sénateur de l'Aude. Il repose aux côtés de son épouse, née Paule Estève (1871-1960). Sa fille Paule (1899-1968), son fils Omer (1902-1969) et sa belle fille, Colette Andrieux du Tertre (1908-1996) reposent également dans d'autres tombes à l'intérieur du cimetière[10],[11];
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il fut créé, peut-après la Révolution, pour remplacer celui situé à l'emplacement de l'actuel monument aux morts qui succéda à un autre cimetière établi à côté de l'église. Au début de la période de l'âge de fer, un cimetière se trouvait sur la commune au lieu dit « La Gabache ».
+Le cimetière actuel comporte deux parties: « le cimetière ancien » et « le nouveau cimetière » attenant, agrandi en 2022 où se trouve le colombarium et un jardin du souvenir. Un carré militaire de corps reconstitués comportant 7 tombes pour 9 poilus est visible.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Cimetière_de_Bram</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_de_Bram</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Histoire et description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Personnalités inhumées</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Guillaume Maugis (1774-1866), maire de Bram de 1800 à 1818, inhumé dans le même caveau que Jules-Léo Maugis (1818-1877), médecin, maire de 1876 à 1877;
+le marquis Charles de Lordat (1829-1908), plusieurs fois maire de Bram, député de l'Aude de 1877 à 1878. Son caveau, est orné d'un frontispice avec les armes de sa famille entourées des sculptures représentant la Cité de Carcassonne et les ruines du château de Lordat en Ariège, dont une pierre prélevée sur place est visible à l'arrière du monument;
+le général François Vidal de la Blache (1848-1917) né et décédé à Bram, frère du géographe Paul Vidal de la Blache ;
+Albert Sarraut (1872-1962), homme d'État, gouverneur général de l'Indochine française, président du conseil, ministre, député et sénateur de l'Aude. Il repose aux côtés de son épouse, née Paule Estève (1871-1960). Sa fille Paule (1899-1968), son fils Omer (1902-1969) et sa belle fille, Colette Andrieux du Tertre (1908-1996) reposent également dans d'autres tombes à l'intérieur du cimetière,;
 Loís Alibèrt (1884-1959), né à Bram, linguiste occitan, auteur notamment d'une grammaire, et d'un dictionnaire, bases de la norme classique de l'occitan;
 le marquis Jacques Le Franc de Pompignan (1899-1987), colonel, maire de Bram de 1959 à 1971;
-Ferrucio-Dante Spanghero (1913-1986) et son épouse, Romea (1918-2007), parents de la célèbre fratrie de rugbymens[12].
-Pierre Seel (1923-2005), militant homosexuel, déporté, victime du paragraphe 175[13];
-le chanoine Bruno Garrouste (1944-2023). Vicaire et curé à Bram de 1990 à 2000 et en 2012, il marqua par sa forte personnalité le Lauragais et le diocèse de Carcassonne[14],[15];
-Gisèle (1953-2016) et Germain Lyon (1948-2016), habitants de Bram, victimes de l'attentat du 14 juillet 2016 à Nice[16],[17].</t>
+Ferrucio-Dante Spanghero (1913-1986) et son épouse, Romea (1918-2007), parents de la célèbre fratrie de rugbymens.
+Pierre Seel (1923-2005), militant homosexuel, déporté, victime du paragraphe 175;
+le chanoine Bruno Garrouste (1944-2023). Vicaire et curé à Bram de 1990 à 2000 et en 2012, il marqua par sa forte personnalité le Lauragais et le diocèse de Carcassonne,;
+Gisèle (1953-2016) et Germain Lyon (1948-2016), habitants de Bram, victimes de l'attentat du 14 juillet 2016 à Nice,.</t>
         </is>
       </c>
     </row>
